--- a/DOM_Banner/output/dept_banner/Nathan Copeland_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Nathan Copeland_2022.xlsx
@@ -877,7 +877,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2047348830", "https://openalex.org/W2068677719", "https://openalex.org/W2041699051", "https://openalex.org/W2111649782", "https://openalex.org/W4221016617", "https://openalex.org/W2209219017", "https://openalex.org/W4315650970", "https://openalex.org/W2118847041", "https://openalex.org/W2024025088", "https://openalex.org/W2016483411")</t>
+          <t>c("https://openalex.org/W2041699051", "https://openalex.org/W2111649782", "https://openalex.org/W1999597698", "https://openalex.org/W2047348830", "https://openalex.org/W2068677719", "https://openalex.org/W2209219017", "https://openalex.org/W4315650970", "https://openalex.org/W2118847041", "https://openalex.org/W2024025088", "https://openalex.org/W2016483411")</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Nathan Copeland_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Nathan Copeland_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310045193</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Reducing Cannabis Use in Young Adults With Psychosis Using iCanChange, a Mobile Health App: Protocol for a Pilot Randomized Controlled Trial (ReCAP-iCC)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-11-25</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>JMIR Research Protocols</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>JMIR Publications</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.2196/40817</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36427227</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.2196/40817</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Drug and Alcohol Services, South East Sydney Local Health District, Caringbah, Australia; NSW Drug and Alcohol Clinical Research and Improvement Network (DACRIN), NSW Health, St Leonards, Australia; National Drug and Alcohol Research Centre, University of New South Wales, Kensington, Australia; Specialty of Addiction Medicine, Faculty Medicine, and Health, University of Sydney, Camperdown, Australia; Drug and Alcohol Services, Hunter New England Local Health District, New Lambton, Australia; Drug and Alcohol Services, Northern Sydney Local Health District, Hornsby, Australia; Priority Research Centre for Brain and Mental Health, School of Medicine and Public Health, University of Newcastle, Callaghan, Australia; Drug and Alcohol Services, Northern Sydney Local Health District, Hornsby, Australia; NSW Drug and Alcohol Clinical Research and Improvement Network (DACRIN), NSW Health, St Leonards, Australia; National Drug and Alcohol Research Centre, University of New South Wales, Kensington, Australia; Specialty of Addiction Medicine, Faculty Medicine, and Health, University of Sydney, Camperdown, Australia; Mind and Neuroscience - Thompson Institute, University of the Sunshine Coast, Sippy Downs, Australia; National Drug and Alcohol Research Centre, University of New South Wales, Kensington, Australia; National Drug and Alcohol Research Centre, University of New South Wales, Kensington, Australia; University of Tasmania, Hobart, Australia; Drug Health, Western Sydney Local Health District, North Parramatta, Australia; Lambert Initiative Cannabinoid Therapeutics, University Sydney, Camperdown, Australia; School of Psychology, University Sydney, Camperdown, Australia; Drug and Alcohol Services, Hunter New England Local Health District, New Lambton, Australia; Drug and Alcohol Services, South East Sydney Local Health District, Caringbah, Australia; Specialty of Addiction Medicine, Faculty Medicine, and Health, University of Sydney, Camperdown, Australia</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4303684354</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Correlates of treatment engagement and client outcomes: results of a randomised controlled trial of nabiximols for the treatment of cannabis use disorder</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-10-08</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Substance Abuse Treatment, Prevention, and Policy</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>BioMed Central</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s13011-022-00493-z</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36209081</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s13011-022-00493-z</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Drug and Alcohol Services, Northern Sydney Local Health District, Level 1, 2c Herbert Street, St Leonards, NSW 2065, Australia; NSW Drug and Alcohol Clinical Research and Improvement Network (DACRIN), NSW, Australia; National Drug and Alcohol Research Centre, University of New South Wales, 22-32 King St, Randwick, NSW 2031, Australia; Specialty of Addiction Medicine, Faculty of Medicine and Health, University of Sydney, City Road, Camperdown, NSW 2006, Australia; Drug Health, Western Sydney Local Health District, 5 Fleet St, North Parramatta, NSW 2151, Australia; Drug and Alcohol Services, South Eastern Sydney Local Health District, The Langton Centre, 591 South Dowling St, Surry Hills, NSW 2010, Australia; NSW Drug and Alcohol Clinical Research and Improvement Network (DACRIN), NSW, Australia; Specialty of Addiction Medicine, Faculty of Medicine and Health, University of Sydney, City Road, Camperdown, NSW 2006, Australia; National Drug and Alcohol Research Centre, University of New South Wales, 22-32 King St, Randwick, NSW 2031, Australia; School of Psychological Sciences, University of Tasmania, Private Bag 30, Hobart, Tasmania 7001, Australia; National Drug and Alcohol Research Centre, University of New South Wales, 22-32 King St, Randwick, NSW 2031, Australia; Sunshine Coast Mind and Neuroscience Thompson Institute, University of the Sunshine Coast, Locked Bag 4, Maroochydore BC, QLD 4558, Australia; Lambert Initiative for Cannabinoid Therapeutics, University of Sydney, City Road, Camperdown, NSW 2006, Australia; Drug and Alcohol Services, South Eastern Sydney Local Health District, The Langton Centre, 591 South Dowling St, Surry Hills, NSW 2010, Australia; Drug and Alcohol Clinical Services, Hunter New England Local Health District, Level 3, 670 Hunter Street, Newcastle, NSW 2300, Australia; NSW Drug and Alcohol Clinical Research and Improvement Network (DACRIN), NSW, Australia; School of Medicine and Public Health, University of Newcastle, University Dr, Callaghan, NSW 2308, Australia; Drug Health, Western Sydney Local Health District, 5 Fleet St, North Parramatta, NSW 2151, Australia; Drug and Alcohol Clinical Services, Hunter New England Local Health District, Level 3, 670 Hunter Street, Newcastle, NSW 2300, Australia; NSW Drug and Alcohol Clinical Research and Improvement Network (DACRIN), NSW, Australia; Drug and Alcohol Services, South Eastern Sydney Local Health District, The Langton Centre, 591 South Dowling St, Surry Hills, NSW 2010, Australia; NSW Drug and Alcohol Clinical Research and Improvement Network (DACRIN), NSW, Australia; Specialty of Addiction Medicine, Faculty of Medicine and Health, University of Sydney, City Road, Camperdown, NSW 2006, Australia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4214887653</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Mood, sleep and pain comorbidity outcomes in cannabis dependent patients: Findings from a nabiximols versus placebo randomised controlled trial</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Drug and Alcohol Dependence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.drugalcdep.2022.109388</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35316689</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.drugalcdep.2022.109388</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4285096299</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Reducing Cannabis Use in Young Adults with Psychosis Using iCanChange, a Mobile Health Application: Protocol for a Pilot Randomized Controlled Trial (ReCAP-iCC) (Preprint)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-07-06</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.2196/preprints.40817</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.2196/preprints.40817</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
